--- a/artfynd/A 14506-2023.xlsx
+++ b/artfynd/A 14506-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,6 +2665,468 @@
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112392912</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Järbäcken, Ög</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>562788</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6504516</v>
+      </c>
+      <c r="S19" t="n">
+        <v>50</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112392668</v>
+      </c>
+      <c r="B20" t="n">
+        <v>90155</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Järbäcken, Ög</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>562710</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6504599</v>
+      </c>
+      <c r="S20" t="n">
+        <v>50</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112392511</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89936</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Grovticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phaeolus schweinitzii</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Pat.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Järbäcken, Ög</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>562765</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6504441</v>
+      </c>
+      <c r="S21" t="n">
+        <v>50</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Gammal tallskog.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112392758</v>
+      </c>
+      <c r="B22" t="n">
+        <v>93539</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2180</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Leucobryum glaucum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Hedw.) Ångstr.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Järbäcken, Ög</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>562788</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6504516</v>
+      </c>
+      <c r="S22" t="n">
+        <v>50</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Blåmossa i större bestånd.</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14506-2023.xlsx
+++ b/artfynd/A 14506-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3127,6 +3127,600 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112501059</v>
+      </c>
+      <c r="B23" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Nybygget S 645 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>562710</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6504626</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112500915</v>
+      </c>
+      <c r="B24" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Nybygget S 767 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>562650</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6504519</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112500988</v>
+      </c>
+      <c r="B25" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Nybygget S 712 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>562650</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6504577</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112500774</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90806</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Lilla Bergsätter VNV 740 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>562914</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6504341</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112499465</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>788</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gul taggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hydnellum geogenium</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Skärlötamarken, Ög</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>562724</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6504540</v>
+      </c>
+      <c r="S27" t="n">
+        <v>75</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>I barrskog.</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Jens Johannesson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14506-2023.xlsx
+++ b/artfynd/A 14506-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY27"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112392912</v>
+        <v>112392511</v>
       </c>
       <c r="B19" t="n">
-        <v>90800</v>
+        <v>89950</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>5420</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562788</v>
+        <v>562765</v>
       </c>
       <c r="R19" t="n">
-        <v>6504516</v>
+        <v>6504441</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2753,7 +2753,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Gammal tallskog.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2780,10 +2785,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112392668</v>
+        <v>112392912</v>
       </c>
       <c r="B20" t="n">
-        <v>90155</v>
+        <v>90814</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2796,21 +2801,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6031</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2821,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562710</v>
+        <v>562788</v>
       </c>
       <c r="R20" t="n">
-        <v>6504599</v>
+        <v>6504516</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2856,7 +2861,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2866,7 +2871,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2893,10 +2898,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112392511</v>
+        <v>112392758</v>
       </c>
       <c r="B21" t="n">
-        <v>89936</v>
+        <v>93553</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,21 +2914,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5420</v>
+        <v>2180</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2934,10 +2939,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562765</v>
+        <v>562788</v>
       </c>
       <c r="R21" t="n">
-        <v>6504441</v>
+        <v>6504516</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -2969,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2979,12 +2984,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Gammal tallskog.</t>
+          <t>Blåmossa i större bestånd.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3011,10 +3016,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112392758</v>
+        <v>112392668</v>
       </c>
       <c r="B22" t="n">
-        <v>93539</v>
+        <v>90169</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3027,21 +3032,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2180</v>
+        <v>6031</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3052,10 +3057,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562788</v>
+        <v>562710</v>
       </c>
       <c r="R22" t="n">
-        <v>6504516</v>
+        <v>6504599</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3087,7 +3092,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3097,12 +3102,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Blåmossa i större bestånd.</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3129,10 +3129,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112501059</v>
+        <v>112499465</v>
       </c>
       <c r="B23" t="n">
-        <v>96735</v>
+        <v>90816</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3141,57 +3141,44 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>788</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Nybygget S 645 m, Ög</t>
+          <t>Skärlötamarken, Ög</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562710</v>
+        <v>562724</v>
       </c>
       <c r="R23" t="n">
-        <v>6504626</v>
+        <v>6504540</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3215,12 +3202,17 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>I barrskog.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3233,20 +3225,15 @@
       <c r="AG23" t="b">
         <v>0</v>
       </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3501,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112500774</v>
+        <v>112521761</v>
       </c>
       <c r="B26" t="n">
-        <v>90806</v>
+        <v>103781</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3513,41 +3500,54 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Lilla Bergsätter VNV 740 m, Ög</t>
+          <t>Nybygget S 717 m, Ög</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562914</v>
+        <v>562713</v>
       </c>
       <c r="R26" t="n">
-        <v>6504341</v>
+        <v>6504561</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3574,12 +3574,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3612,10 +3612,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112499465</v>
+        <v>112521579</v>
       </c>
       <c r="B27" t="n">
-        <v>90816</v>
+        <v>103781</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3624,44 +3624,57 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>788</v>
+        <v>221144</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Skärlötamarken, Ög</t>
+          <t>Lilla Bergsätter VNV 743 m, Ög</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>562724</v>
+        <v>562906</v>
       </c>
       <c r="R27" t="n">
-        <v>6504540</v>
+        <v>6504323</v>
       </c>
       <c r="S27" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3685,17 +3698,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>I barrskog.</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3708,18 +3716,390 @@
       <c r="AG27" t="b">
         <v>0</v>
       </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112521815</v>
+      </c>
+      <c r="B28" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Nybygget S 726 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>562787</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6504539</v>
+      </c>
+      <c r="S28" t="n">
+        <v>25</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112501059</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Nybygget S 645 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>562710</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6504626</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112500774</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90806</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Lilla Bergsätter VNV 740 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>562914</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6504341</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 14506-2023.xlsx
+++ b/artfynd/A 14506-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2667,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112392511</v>
+        <v>112392912</v>
       </c>
       <c r="B19" t="n">
-        <v>89950</v>
+        <v>90814</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5420</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grovticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phaeolus schweinitzii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Pat.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>562765</v>
+        <v>562788</v>
       </c>
       <c r="R19" t="n">
-        <v>6504441</v>
+        <v>6504516</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2753,12 +2753,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>13:32</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Gammal tallskog.</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2785,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112392912</v>
+        <v>112392511</v>
       </c>
       <c r="B20" t="n">
-        <v>90814</v>
+        <v>89950</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2801,21 +2796,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>5420</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grovticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phaeolus schweinitzii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Pat.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,10 +2821,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>562788</v>
+        <v>562765</v>
       </c>
       <c r="R20" t="n">
-        <v>6504516</v>
+        <v>6504441</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2861,7 +2856,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2871,7 +2866,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Gammal tallskog.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2898,10 +2898,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112392758</v>
+        <v>112392668</v>
       </c>
       <c r="B21" t="n">
-        <v>93553</v>
+        <v>90169</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2914,21 +2914,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2180</v>
+        <v>6031</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Sparassis crispa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Wulfen:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>562788</v>
+        <v>562710</v>
       </c>
       <c r="R21" t="n">
-        <v>6504516</v>
+        <v>6504599</v>
       </c>
       <c r="S21" t="n">
         <v>50</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2984,12 +2984,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:58</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Blåmossa i större bestånd.</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3016,10 +3011,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112392668</v>
+        <v>112392758</v>
       </c>
       <c r="B22" t="n">
-        <v>90169</v>
+        <v>93553</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,21 +3027,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6031</v>
+        <v>2180</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sparassis crispa</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Wulfen:Fr.) Fr.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3057,10 +3052,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>562710</v>
+        <v>562788</v>
       </c>
       <c r="R22" t="n">
-        <v>6504599</v>
+        <v>6504516</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3092,7 +3087,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3102,7 +3097,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:58</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Blåmossa i större bestånd.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3129,10 +3129,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112499465</v>
+        <v>112500988</v>
       </c>
       <c r="B23" t="n">
-        <v>90816</v>
+        <v>103781</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3141,44 +3141,57 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>788</v>
+        <v>221144</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Skärlötamarken, Ög</t>
+          <t>Nybygget S 712 m, Ög</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>562724</v>
+        <v>562650</v>
       </c>
       <c r="R23" t="n">
-        <v>6504540</v>
+        <v>6504577</v>
       </c>
       <c r="S23" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3202,17 +3215,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>I barrskog.</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3225,15 +3233,20 @@
       <c r="AG23" t="b">
         <v>0</v>
       </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jens Johannesson</t>
+          <t>Mirjam Ideström</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -3364,10 +3377,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112500988</v>
+        <v>112499465</v>
       </c>
       <c r="B25" t="n">
-        <v>103781</v>
+        <v>90816</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3376,57 +3389,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221144</v>
+        <v>788</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Nybygget S 712 m, Ög</t>
+          <t>Skärlötamarken, Ög</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>562650</v>
+        <v>562724</v>
       </c>
       <c r="R25" t="n">
-        <v>6504577</v>
+        <v>6504540</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3450,12 +3450,17 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-29</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>I barrskog.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3468,27 +3473,22 @@
       <c r="AG25" t="b">
         <v>0</v>
       </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Mirjam Ideström</t>
+          <t>Jens Johannesson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112521761</v>
+        <v>112521815</v>
       </c>
       <c r="B26" t="n">
         <v>103781</v>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3533,24 +3533,24 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>överblommad</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Nybygget S 717 m, Ög</t>
+          <t>Nybygget S 726 m, Ög</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>562713</v>
+        <v>562787</v>
       </c>
       <c r="R26" t="n">
-        <v>6504561</v>
+        <v>6504539</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3736,10 +3736,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112521815</v>
+        <v>112501059</v>
       </c>
       <c r="B28" t="n">
-        <v>103781</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3748,35 +3748,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3788,17 +3788,17 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Nybygget S 726 m, Ög</t>
+          <t>Nybygget S 645 m, Ög</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>562787</v>
+        <v>562710</v>
       </c>
       <c r="R28" t="n">
-        <v>6504539</v>
+        <v>6504626</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3822,12 +3822,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3860,10 +3860,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112501059</v>
+        <v>112500774</v>
       </c>
       <c r="B29" t="n">
-        <v>96735</v>
+        <v>90806</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3872,54 +3872,49 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Nybygget S 645 m, Ög</t>
+          <t>Lilla Bergsätter VNV 740 m, Ög</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>562710</v>
+        <v>562914</v>
       </c>
       <c r="R29" t="n">
-        <v>6504626</v>
+        <v>6504341</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3984,10 +3979,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112500774</v>
+        <v>112521761</v>
       </c>
       <c r="B30" t="n">
-        <v>90806</v>
+        <v>103781</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3996,49 +3991,54 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Lilla Bergsätter VNV 740 m, Ög</t>
+          <t>Nybygget S 717 m, Ög</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>562914</v>
+        <v>562713</v>
       </c>
       <c r="R30" t="n">
-        <v>6504341</v>
+        <v>6504561</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4065,12 +4065,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4100,6 +4100,737 @@
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112544120</v>
+      </c>
+      <c r="B31" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Nybygget S 755 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>562780</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6504510</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112544194</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Lilla Bergsätter VNV 610 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>563006</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6504198</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112544076</v>
+      </c>
+      <c r="B33" t="n">
+        <v>98980</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Lilla Bergsätter VNV 670 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>562963</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6504289</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112528170</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90169</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Nybygget S 850 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>562836</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6504411</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112528156</v>
+      </c>
+      <c r="B35" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Nybygget S 770 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>562884</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6504508</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112544145</v>
+      </c>
+      <c r="B36" t="n">
+        <v>103781</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Nybygget S 880 m, Ög</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>562908</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6504385</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Kvillinge</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-10-05</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Mirjam Ideström</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
